--- a/youtube_webscrab/Luke Barousse.xlsx
+++ b/youtube_webscrab/Luke Barousse.xlsx
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4173</v>
+        <v>4324</v>
       </c>
       <c r="E2" t="n">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7267</v>
+        <v>7598</v>
       </c>
       <c r="E3" t="n">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10772</v>
+        <v>11242</v>
       </c>
       <c r="E4" t="n">
-        <v>855</v>
+        <v>902</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5883</v>
+        <v>5997</v>
       </c>
       <c r="E5" t="n">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12129</v>
+        <v>12492</v>
       </c>
       <c r="E6" t="n">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6765</v>
+        <v>6871</v>
       </c>
       <c r="E7" t="n">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9709</v>
+        <v>9965</v>
       </c>
       <c r="E8" t="n">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="F8" t="n">
         <v>13</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13734</v>
+        <v>14040</v>
       </c>
       <c r="E9" t="n">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11271</v>
+        <v>11386</v>
       </c>
       <c r="E10" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F10" t="n">
         <v>15</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7568</v>
+        <v>7634</v>
       </c>
       <c r="E11" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5469</v>
+        <v>5506</v>
       </c>
       <c r="E12" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9479</v>
+        <v>9507</v>
       </c>
       <c r="E13" t="n">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25279</v>
+        <v>25688</v>
       </c>
       <c r="E14" t="n">
-        <v>1671</v>
+        <v>1705</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9340</v>
+        <v>9412</v>
       </c>
       <c r="E15" t="n">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>44981</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20441</v>
+        <v>20557</v>
       </c>
       <c r="E16" t="n">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26992</v>
+        <v>27461</v>
       </c>
       <c r="E17" t="n">
-        <v>1975</v>
+        <v>2023</v>
       </c>
       <c r="F17" t="n">
         <v>27</v>
@@ -997,17 +997,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>I analyzed 680,895 jobs to solve THIS</t>
+          <t>I analyzed 684,276 jobs to solve THIS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>157410</v>
+        <v>157740</v>
       </c>
       <c r="E18" t="n">
-        <v>9524</v>
+        <v>9543</v>
       </c>
       <c r="F18" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>44974</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9354</v>
+        <v>9386</v>
       </c>
       <c r="E19" t="n">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="F19" t="n">
         <v>22</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11749</v>
+        <v>11824</v>
       </c>
       <c r="E20" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6304</v>
+        <v>6324</v>
       </c>
       <c r="E21" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F21" t="n">
         <v>12</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26343</v>
+        <v>26492</v>
       </c>
       <c r="E22" t="n">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15396</v>
+        <v>15424</v>
       </c>
       <c r="E23" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7756</v>
+        <v>7770</v>
       </c>
       <c r="E24" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25178</v>
+        <v>25234</v>
       </c>
       <c r="E25" t="n">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="F25" t="n">
         <v>37</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13150</v>
+        <v>13162</v>
       </c>
       <c r="E26" t="n">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="F26" t="n">
         <v>26</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27021</v>
+        <v>27201</v>
       </c>
       <c r="E27" t="n">
-        <v>2829</v>
+        <v>2852</v>
       </c>
       <c r="F27" t="n">
         <v>44</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22614</v>
+        <v>22676</v>
       </c>
       <c r="E28" t="n">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="F28" t="n">
         <v>31</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20849</v>
+        <v>20954</v>
       </c>
       <c r="E29" t="n">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
@@ -1385,13 +1385,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10555</v>
+        <v>10592</v>
       </c>
       <c r="E30" t="n">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>44939</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39477</v>
+        <v>39786</v>
       </c>
       <c r="E31" t="n">
-        <v>2068</v>
+        <v>2086</v>
       </c>
       <c r="F31" t="n">
         <v>48</v>
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>36061</v>
+        <v>36233</v>
       </c>
       <c r="E32" t="n">
-        <v>3169</v>
+        <v>3196</v>
       </c>
       <c r="F32" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>44936</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13427</v>
+        <v>13446</v>
       </c>
       <c r="E33" t="n">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="F33" t="n">
         <v>14</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19737</v>
+        <v>19801</v>
       </c>
       <c r="E34" t="n">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="F34" t="n">
         <v>25</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18872</v>
+        <v>18894</v>
       </c>
       <c r="E35" t="n">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="F35" t="n">
         <v>6</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>21438</v>
+        <v>21487</v>
       </c>
       <c r="E36" t="n">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="F36" t="n">
         <v>12</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18730</v>
+        <v>18779</v>
       </c>
       <c r="E37" t="n">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="F37" t="n">
         <v>12</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="E38" t="n">
         <v>325</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>16068</v>
+        <v>16119</v>
       </c>
       <c r="E39" t="n">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="F39" t="n">
         <v>22</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>18955</v>
+        <v>18977</v>
       </c>
       <c r="E40" t="n">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="F40" t="n">
         <v>41</v>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6752</v>
+        <v>6754</v>
       </c>
       <c r="E41" t="n">
         <v>265</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11065</v>
+        <v>11078</v>
       </c>
       <c r="E42" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F42" t="n">
         <v>14</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26565</v>
+        <v>26826</v>
       </c>
       <c r="E43" t="n">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="F43" t="n">
         <v>29</v>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10694</v>
+        <v>10696</v>
       </c>
       <c r="E44" t="n">
         <v>477</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13927</v>
+        <v>13972</v>
       </c>
       <c r="E45" t="n">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="F45" t="n">
         <v>13</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15142</v>
+        <v>15152</v>
       </c>
       <c r="E46" t="n">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F46" t="n">
         <v>4</v>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>124273</v>
+        <v>124278</v>
       </c>
       <c r="E47" t="n">
         <v>1902</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>52016</v>
+        <v>52116</v>
       </c>
       <c r="E48" t="n">
-        <v>2709</v>
+        <v>2715</v>
       </c>
       <c r="F48" t="n">
         <v>36</v>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>33371</v>
+        <v>33391</v>
       </c>
       <c r="E49" t="n">
         <v>1327</v>
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>236396</v>
+        <v>237227</v>
       </c>
       <c r="E50" t="n">
-        <v>10176</v>
+        <v>10193</v>
       </c>
       <c r="F50" t="n">
-        <v>527</v>
+        <v>424</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>44890</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>18975</v>
+        <v>19092</v>
       </c>
       <c r="E51" t="n">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="F51" t="n">
         <v>22</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16321</v>
+        <v>16484</v>
       </c>
       <c r="E52" t="n">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="F52" t="n">
         <v>17</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>428676</v>
+        <v>428807</v>
       </c>
       <c r="E53" t="n">
-        <v>11379</v>
+        <v>11384</v>
       </c>
       <c r="F53" t="n">
         <v>282</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>29134</v>
+        <v>29237</v>
       </c>
       <c r="E54" t="n">
-        <v>1497</v>
+        <v>1508</v>
       </c>
       <c r="F54" t="n">
         <v>53</v>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>49505</v>
+        <v>49602</v>
       </c>
       <c r="E55" t="n">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="F55" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>44846</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>43462</v>
+        <v>43497</v>
       </c>
       <c r="E56" t="n">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="F56" t="n">
         <v>121</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>93159</v>
+        <v>93233</v>
       </c>
       <c r="E57" t="n">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="F57" t="n">
         <v>182</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>86893</v>
+        <v>86957</v>
       </c>
       <c r="E58" t="n">
-        <v>4033</v>
+        <v>4035</v>
       </c>
       <c r="F58" t="n">
         <v>301</v>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>44996</v>
+        <v>45006</v>
       </c>
       <c r="E59" t="n">
         <v>2093</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>403672</v>
+        <v>403880</v>
       </c>
       <c r="E60" t="n">
-        <v>12928</v>
+        <v>12941</v>
       </c>
       <c r="F60" t="n">
         <v>549</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>201348</v>
+        <v>201640</v>
       </c>
       <c r="E61" t="n">
-        <v>9420</v>
+        <v>9441</v>
       </c>
       <c r="F61" t="n">
         <v>293</v>
@@ -2409,13 +2409,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>458490</v>
+        <v>458779</v>
       </c>
       <c r="E62" t="n">
-        <v>14747</v>
+        <v>14759</v>
       </c>
       <c r="F62" t="n">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>44652</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>99823</v>
+        <v>99972</v>
       </c>
       <c r="E63" t="n">
-        <v>4847</v>
+        <v>4851</v>
       </c>
       <c r="F63" t="n">
         <v>209</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>110344</v>
+        <v>110435</v>
       </c>
       <c r="E64" t="n">
-        <v>5575</v>
+        <v>5579</v>
       </c>
       <c r="F64" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>44617</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>162235</v>
+        <v>162406</v>
       </c>
       <c r="E65" t="n">
-        <v>8387</v>
+        <v>8399</v>
       </c>
       <c r="F65" t="n">
         <v>303</v>
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>583317</v>
+        <v>583785</v>
       </c>
       <c r="E66" t="n">
-        <v>20831</v>
+        <v>20845</v>
       </c>
       <c r="F66" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>44589</v>
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>161607</v>
+        <v>161724</v>
       </c>
       <c r="E67" t="n">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="F67" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>44575</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1132522</v>
+        <v>1133910</v>
       </c>
       <c r="E68" t="n">
-        <v>46823</v>
+        <v>46885</v>
       </c>
       <c r="F68" t="n">
         <v>1159</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>397466</v>
+        <v>398026</v>
       </c>
       <c r="E69" t="n">
-        <v>19199</v>
+        <v>19229</v>
       </c>
       <c r="F69" t="n">
         <v>707</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>132452</v>
+        <v>132677</v>
       </c>
       <c r="E70" t="n">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="F70" t="n">
         <v>383</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>505455</v>
+        <v>505576</v>
       </c>
       <c r="E71" t="n">
-        <v>18441</v>
+        <v>18444</v>
       </c>
       <c r="F71" t="n">
         <v>459</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>93496</v>
+        <v>93548</v>
       </c>
       <c r="E72" t="n">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="F72" t="n">
         <v>263</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>56343</v>
+        <v>56369</v>
       </c>
       <c r="E73" t="n">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="F73" t="n">
         <v>46</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>71214</v>
+        <v>71291</v>
       </c>
       <c r="E74" t="n">
-        <v>3220</v>
+        <v>3225</v>
       </c>
       <c r="F74" t="n">
         <v>219</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>61988</v>
+        <v>62041</v>
       </c>
       <c r="E75" t="n">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="F75" t="n">
         <v>198</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>61617</v>
+        <v>61733</v>
       </c>
       <c r="E76" t="n">
-        <v>3769</v>
+        <v>3781</v>
       </c>
       <c r="F76" t="n">
         <v>22</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>149141</v>
+        <v>149172</v>
       </c>
       <c r="E77" t="n">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="F77" t="n">
         <v>304</v>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>36782</v>
+        <v>36800</v>
       </c>
       <c r="E78" t="n">
         <v>1968</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>225328</v>
+        <v>225464</v>
       </c>
       <c r="E79" t="n">
-        <v>9257</v>
+        <v>9258</v>
       </c>
       <c r="F79" t="n">
         <v>640</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>40350</v>
+        <v>40364</v>
       </c>
       <c r="E80" t="n">
         <v>2035</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>22944</v>
+        <v>22947</v>
       </c>
       <c r="E81" t="n">
         <v>1397</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>85580</v>
+        <v>85615</v>
       </c>
       <c r="E82" t="n">
-        <v>4743</v>
+        <v>4748</v>
       </c>
       <c r="F82" t="n">
         <v>175</v>
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>40973</v>
+        <v>40985</v>
       </c>
       <c r="E83" t="n">
         <v>1843</v>
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>265645</v>
+        <v>265702</v>
       </c>
       <c r="E85" t="n">
-        <v>9643</v>
+        <v>9645</v>
       </c>
       <c r="F85" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>44378</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>49384</v>
+        <v>49404</v>
       </c>
       <c r="E86" t="n">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="F86" t="n">
         <v>263</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>142842</v>
+        <v>142853</v>
       </c>
       <c r="E87" t="n">
         <v>4867</v>
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>90848</v>
+        <v>90886</v>
       </c>
       <c r="E88" t="n">
-        <v>3302</v>
+        <v>3305</v>
       </c>
       <c r="F88" t="n">
         <v>211</v>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>10840</v>
+        <v>10849</v>
       </c>
       <c r="E89" t="n">
         <v>424</v>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>249167</v>
+        <v>249224</v>
       </c>
       <c r="E90" t="n">
-        <v>10548</v>
+        <v>10553</v>
       </c>
       <c r="F90" t="n">
         <v>373</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>111846</v>
+        <v>111879</v>
       </c>
       <c r="E91" t="n">
         <v>3239</v>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>729443</v>
+        <v>729841</v>
       </c>
       <c r="E92" t="n">
-        <v>27023</v>
+        <v>27036</v>
       </c>
       <c r="F92" t="n">
         <v>1308</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>55784</v>
+        <v>55797</v>
       </c>
       <c r="E93" t="n">
         <v>2152</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4226565</v>
+        <v>4226872</v>
       </c>
       <c r="E94" t="n">
-        <v>107024</v>
+        <v>107026</v>
       </c>
       <c r="F94" t="n">
         <v>3396</v>
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>321794</v>
+        <v>321841</v>
       </c>
       <c r="E95" t="n">
-        <v>8042</v>
+        <v>8043</v>
       </c>
       <c r="F95" t="n">
         <v>402</v>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>75360</v>
+        <v>75399</v>
       </c>
       <c r="E96" t="n">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="F96" t="n">
         <v>245</v>
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>320203</v>
+        <v>320344</v>
       </c>
       <c r="E97" t="n">
-        <v>7801</v>
+        <v>7802</v>
       </c>
       <c r="F97" t="n">
         <v>477</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>91097</v>
+        <v>91145</v>
       </c>
       <c r="E98" t="n">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="F98" t="n">
         <v>379</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="E99" t="n">
         <v>190</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>50225</v>
+        <v>50289</v>
       </c>
       <c r="E100" t="n">
         <v>1293</v>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>308044</v>
+        <v>308092</v>
       </c>
       <c r="E101" t="n">
-        <v>6051</v>
+        <v>6052</v>
       </c>
       <c r="F101" t="n">
         <v>684</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>45672</v>
+        <v>45704</v>
       </c>
       <c r="E102" t="n">
         <v>1054</v>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>16679</v>
+        <v>16683</v>
       </c>
       <c r="E103" t="n">
         <v>376</v>
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>110948</v>
+        <v>110985</v>
       </c>
       <c r="E104" t="n">
         <v>2349</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="E105" t="n">
         <v>51</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E106" t="n">
         <v>49</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="E107" t="n">
         <v>51</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>76969</v>
+        <v>76974</v>
       </c>
       <c r="E108" t="n">
         <v>1922</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="E109" t="n">
         <v>94</v>
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E110" t="n">
         <v>98</v>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="E111" t="n">
         <v>122</v>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>125354</v>
+        <v>125386</v>
       </c>
       <c r="E112" t="n">
         <v>4324</v>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="E113" t="n">
         <v>158</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3975</v>
+        <v>3977</v>
       </c>
       <c r="E114" t="n">
         <v>137</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="E115" t="n">
         <v>127</v>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5533</v>
+        <v>5536</v>
       </c>
       <c r="E116" t="n">
         <v>213</v>
@@ -4201,10 +4201,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="E118" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F118" t="n">
         <v>57</v>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>15060</v>
+        <v>15066</v>
       </c>
       <c r="E119" t="n">
         <v>539</v>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>51452</v>
+        <v>51537</v>
       </c>
       <c r="E120" t="n">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F120" t="n">
         <v>79</v>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>26749</v>
+        <v>26816</v>
       </c>
       <c r="E121" t="n">
         <v>900</v>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13580</v>
+        <v>13607</v>
       </c>
       <c r="E122" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F122" t="n">
         <v>28</v>
@@ -4361,10 +4361,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>15891</v>
+        <v>15923</v>
       </c>
       <c r="E123" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F123" t="n">
         <v>33</v>
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>18794</v>
+        <v>18821</v>
       </c>
       <c r="E124" t="n">
         <v>544</v>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9467</v>
+        <v>9487</v>
       </c>
       <c r="E125" t="n">
         <v>156</v>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5309</v>
+        <v>5321</v>
       </c>
       <c r="E126" t="n">
         <v>163</v>
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5988</v>
+        <v>5993</v>
       </c>
       <c r="E127" t="n">
         <v>104</v>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>6582</v>
+        <v>6591</v>
       </c>
       <c r="E128" t="n">
         <v>126</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>18547</v>
+        <v>18576</v>
       </c>
       <c r="E129" t="n">
         <v>279</v>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>7385</v>
+        <v>7394</v>
       </c>
       <c r="E130" t="n">
         <v>122</v>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2705</v>
+        <v>2711</v>
       </c>
       <c r="E132" t="n">
         <v>115</v>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3881</v>
+        <v>3886</v>
       </c>
       <c r="E133" t="n">
         <v>147</v>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>20005</v>
+        <v>20024</v>
       </c>
       <c r="E134" t="n">
         <v>383</v>
